--- a/keyword1.xlsx
+++ b/keyword1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Working\Text analyitcs\rawfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A86E9D-F5EB-4600-8410-2B69EA6E58CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4384CC-D1BA-4079-946C-1BA730BC381F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF1E40E0-4059-4388-9F6A-4EF427941F17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="144">
   <si>
     <t>product_title</t>
   </si>
@@ -454,6 +457,9 @@
   </si>
   <si>
     <t>['128 gb', 'installnight vision', 'vision goodcomes', 'view added', 'storage memory']</t>
+  </si>
+  <si>
+    <t>2.0 out of 5 stars</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD24"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1513,7 @@
         <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
